--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/OREGON_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/OREGON_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1249"/>
+  <dimension ref="A1:D1243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -394,7 +394,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="3">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C7">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1270,7 +1270,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C68">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C91">
@@ -1605,7 +1605,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C97">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C112">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C130">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C135">
@@ -2231,7 +2231,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C140">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C146">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C150">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C155">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C159">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C170">
@@ -2680,7 +2680,7 @@
         <v>8</v>
       </c>
       <c r="D174">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="175">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C177">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C193">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C198">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C201">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C210">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C211">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C218">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C222">
@@ -3322,7 +3322,7 @@
         <v>8</v>
       </c>
       <c r="D223">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="224">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C229">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C233">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C235">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C236">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C237">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C241">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C246">
@@ -3645,20 +3645,20 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C248">
         <v>8</v>
       </c>
       <c r="D248">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C249">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C254">
@@ -3736,7 +3736,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C255">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C261">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C266">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C270">
@@ -3990,13 +3990,13 @@
         <v>8</v>
       </c>
       <c r="D274">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C276">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C279">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C281">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C284">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,14 +4282,14 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C297">
         <v>88</v>
       </c>
       <c r="D297">
-        <v>0.009952499434517077</v>
+        <v>0.009952499434517075</v>
       </c>
     </row>
     <row r="298">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C301">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C318">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C322">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C327">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C331">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C333">
@@ -4827,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="D338">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C341">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C347">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C351">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C354">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C357">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C359">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C362">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C365">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C371">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C376">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C379">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C381">
@@ -5443,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="D385">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C386">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C393">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C400">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C407">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C408">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C412">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C417">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C428">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C430">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C433">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C436">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C440">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C447">
@@ -6262,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="D448">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="449">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C450">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C451">
@@ -6314,7 +6314,7 @@
         <v>8</v>
       </c>
       <c r="D452">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="453">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C461">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C462">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C466">
@@ -6502,7 +6502,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C467">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C471">
@@ -6567,7 +6567,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C472">
@@ -6858,7 +6858,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C494">
@@ -6884,7 +6884,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C496">
@@ -6969,7 +6969,7 @@
         <v>8</v>
       </c>
       <c r="D502">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="503">
@@ -7021,7 +7021,7 @@
         <v>8</v>
       </c>
       <c r="D506">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="507">
@@ -7307,7 +7307,7 @@
         <v>8</v>
       </c>
       <c r="D528">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="529">
@@ -7703,7 +7703,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C559">
@@ -7866,7 +7866,7 @@
         <v>8</v>
       </c>
       <c r="D571">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="572">
@@ -8020,7 +8020,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C583">
@@ -8098,7 +8098,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C589">
@@ -8150,14 +8150,14 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C593">
         <v>8</v>
       </c>
       <c r="D593">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="594">
@@ -8215,7 +8215,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C598">
@@ -8305,7 +8305,7 @@
         <v>8</v>
       </c>
       <c r="D604">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="605">
@@ -8318,13 +8318,13 @@
         <v>8</v>
       </c>
       <c r="D605">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C606">
@@ -8337,7 +8337,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C607">
@@ -8389,7 +8389,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C611">
@@ -8480,7 +8480,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C618">
@@ -8628,7 +8628,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C629">
@@ -8667,7 +8667,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C632">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C635">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C639">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C644">
@@ -8854,7 +8854,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C646">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C647">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C650">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C651">
@@ -8932,7 +8932,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C652">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C653">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C656">
@@ -9030,7 +9030,7 @@
         <v>8</v>
       </c>
       <c r="D659">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="660">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C662">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C664">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C666">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C668">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,20 +9179,20 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C671">
         <v>84</v>
       </c>
       <c r="D671">
-        <v>0.009500113096584483</v>
+        <v>0.009500113096584484</v>
       </c>
     </row>
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C673">
@@ -9225,7 +9225,7 @@
         <v>8</v>
       </c>
       <c r="D674">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="675">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C677">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C688">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C710">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C722">
@@ -10109,7 +10109,7 @@
         <v>8</v>
       </c>
       <c r="D742">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="743">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C750">
@@ -10427,14 +10427,14 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C767">
         <v>8</v>
       </c>
       <c r="D767">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="768">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C791">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C794">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C796">
@@ -11084,7 +11084,7 @@
         <v>8</v>
       </c>
       <c r="D817">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="818">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C844">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C856">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C861">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C864">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C866">
@@ -11778,7 +11778,7 @@
         <v>8</v>
       </c>
       <c r="D870">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="871">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C879">
@@ -12057,7 +12057,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C892">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C898">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C902">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C907">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C908">
@@ -12304,7 +12304,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C911">
@@ -12402,7 +12402,7 @@
         <v>8</v>
       </c>
       <c r="D918">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="919">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C925">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C926">
@@ -12564,7 +12564,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C931">
@@ -12642,7 +12642,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C937">
@@ -12655,7 +12655,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C938">
@@ -12668,7 +12668,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C939">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C943">
@@ -12746,7 +12746,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C945">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C948">
@@ -12902,7 +12902,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C957">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C968">
@@ -13063,7 +13063,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C969">
@@ -13141,7 +13141,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C975">
@@ -13268,7 +13268,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C984">
@@ -13320,7 +13320,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C988">
@@ -13359,7 +13359,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C991">
@@ -13385,7 +13385,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C993">
@@ -13411,7 +13411,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C995">
@@ -14133,7 +14133,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1049">
@@ -14268,7 +14268,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1059">
@@ -14281,7 +14281,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1060">
@@ -14359,7 +14359,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1066">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1083">
@@ -14611,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1085">
@@ -14715,7 +14715,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1093">
@@ -14767,7 +14767,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1097">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1107">
@@ -14917,7 +14917,7 @@
         <v>8</v>
       </c>
       <c r="D1108">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1109">
@@ -14969,7 +14969,7 @@
         <v>8</v>
       </c>
       <c r="D1112">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1113">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1119">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1122">
@@ -15170,7 +15170,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1128">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1132">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1136">
@@ -15307,13 +15307,13 @@
         <v>8</v>
       </c>
       <c r="D1138">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1139">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1147">
@@ -15456,7 +15456,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1150">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1159">
@@ -15794,7 +15794,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1176">
@@ -16183,7 +16183,7 @@
         <v>8</v>
       </c>
       <c r="D1205">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1206">
@@ -16227,7 +16227,7 @@
         <v>8</v>
       </c>
       <c r="D1208">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1209">
@@ -16246,7 +16246,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1210">
@@ -16272,7 +16272,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1212">
@@ -16363,14 +16363,14 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1219">
         <v>8</v>
       </c>
       <c r="D1219">
-        <v>0.0009047726758651889</v>
+        <v>0.0009047726758651888</v>
       </c>
     </row>
     <row r="1220">
@@ -16441,7 +16441,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1225">
@@ -16467,7 +16467,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1227">
@@ -16480,7 +16480,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1228">
@@ -16558,7 +16558,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1234">
@@ -16571,7 +16571,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1235">
@@ -16584,7 +16584,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1236">
@@ -16610,7 +16610,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1238">
@@ -16683,41 +16683,6 @@
       </c>
       <c r="D1243">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
